--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.9540112066796906</v>
+        <v>4.9540112090094981</v>
       </c>
       <c r="C2">
-        <v>5.007017169758579</v>
+        <v>5.0070171722760257</v>
       </c>
       <c r="D2">
-        <v>4.4856392602410402</v>
+        <v>4.4856392671919458</v>
       </c>
       <c r="E2">
-        <v>2.4136738066904648</v>
+        <v>2.4136738087541318</v>
       </c>
       <c r="F2">
-        <v>4.64124751033882</v>
+        <v>4.6412475121018746</v>
       </c>
       <c r="G2">
-        <v>7.2852109579718691</v>
+        <v>7.285210957243299</v>
       </c>
       <c r="H2">
-        <v>3.0444069617667378</v>
+        <v>3.0444069650931702</v>
       </c>
       <c r="I2">
-        <v>4.6154849698455891</v>
+        <v>4.6154849678511534</v>
       </c>
       <c r="J2">
-        <v>5.1245118856003806</v>
+        <v>5.1245118905740439</v>
       </c>
       <c r="K2">
-        <v>5.770045273775759</v>
+        <v>5.7700452715864232</v>
       </c>
       <c r="L2">
-        <v>7.4093170178799479</v>
+        <v>7.4093170197702669</v>
       </c>
       <c r="N2">
-        <v>4.7998241890281106</v>
+        <v>4.7998241891397866</v>
       </c>
       <c r="O2">
-        <v>3.051645928487305</v>
+        <v>3.0516459348053151</v>
       </c>
       <c r="P2">
-        <v>4.4267295567085316</v>
+        <v>4.4267295588156941</v>
       </c>
       <c r="Q2">
-        <v>8.2958992633663886</v>
+        <v>8.2958992702885919</v>
       </c>
       <c r="S2">
-        <v>3.5208629184190978</v>
+        <v>3.5208629512754377</v>
       </c>
       <c r="V2">
-        <v>4.5099853462141306</v>
+        <v>4.5099853529057388</v>
       </c>
       <c r="W2">
-        <v>5.7348500536528872</v>
+        <v>5.7348500576192505</v>
       </c>
       <c r="X2">
-        <v>6.437162493654192</v>
+        <v>6.4371624985703697</v>
       </c>
       <c r="AA2">
-        <v>3.2421450648843617</v>
+        <v>3.2421450718739129</v>
       </c>
       <c r="AB2">
-        <v>4.1222424304331948</v>
+        <v>4.1222424440926577</v>
       </c>
       <c r="AC2">
-        <v>6.4783527979165294</v>
+        <v>6.478352797582529</v>
       </c>
       <c r="AD2">
-        <v>1.5606999234657282</v>
+        <v>1.5606999388224403</v>
       </c>
       <c r="AE2">
-        <v>4.946518695377395</v>
+        <v>4.946518695920834</v>
       </c>
       <c r="AF2">
-        <v>4.3982732380551086</v>
+        <v>4.398273239327307</v>
       </c>
       <c r="AG2">
-        <v>2.8932485296486599</v>
+        <v>2.8932485364389944</v>
       </c>
       <c r="AH2">
-        <v>3.1285464848679467</v>
+        <v>3.1285464940762875</v>
       </c>
       <c r="AI2">
-        <v>4.8478767963871539</v>
+        <v>4.8478768116190603</v>
       </c>
       <c r="AJ2">
-        <v>3.8035480009735161</v>
+        <v>3.8035480036449658</v>
       </c>
       <c r="AK2">
-        <v>4.541116290753636</v>
+        <v>4.5411162970026693</v>
       </c>
       <c r="AL2">
-        <v>7.2483994943644614</v>
+        <v>7.2483995007758404</v>
       </c>
       <c r="AM2">
-        <v>3.0794776215143171</v>
+        <v>3.0794776331894016</v>
       </c>
       <c r="AN2">
-        <v>4.1642446649449463</v>
+        <v>4.1642446736945837</v>
       </c>
       <c r="AO2">
-        <v>2.5450291117537795</v>
+        <v>2.545029123706041</v>
       </c>
       <c r="AQ2">
-        <v>5.530587077972994</v>
+        <v>5.5305870879912389</v>
       </c>
       <c r="AR2">
-        <v>3.1889417152836415</v>
+        <v>3.1889417115946852</v>
       </c>
       <c r="AS2">
-        <v>2.5682932409788322</v>
+        <v>2.5682932523539184</v>
       </c>
       <c r="AU2">
-        <v>2.8316246299752561</v>
+        <v>2.8316246355492436</v>
       </c>
       <c r="AV2">
-        <v>3.1990513909444322</v>
+        <v>3.1990514048113594</v>
       </c>
       <c r="AW2">
-        <v>5.0522654134167118</v>
+        <v>5.0522654232405095</v>
       </c>
       <c r="AX2">
-        <v>3.1720329788931281</v>
+        <v>3.1720329852798899</v>
       </c>
       <c r="AY2">
-        <v>1.8700103749232315</v>
+        <v>1.8700103864548869</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.0853495465808569</v>
+        <v>5.0853495527150638</v>
       </c>
       <c r="C3">
-        <v>4.8173908722598338</v>
+        <v>4.817390879437502</v>
       </c>
       <c r="E3">
-        <v>3.311863670523798</v>
+        <v>3.3118636741325238</v>
       </c>
       <c r="F3">
-        <v>4.3907104912761978</v>
+        <v>4.3907104962170287</v>
       </c>
       <c r="G3">
-        <v>3.9082655288655448</v>
+        <v>3.9082655332827976</v>
       </c>
       <c r="H3">
-        <v>6.5836250244714165</v>
+        <v>6.5836250264535545</v>
       </c>
       <c r="J3">
-        <v>3.9651061089215358</v>
+        <v>3.9651061212269032</v>
       </c>
       <c r="K3">
-        <v>-0.6098538302786799</v>
+        <v>-0.60985382627235896</v>
       </c>
       <c r="L3">
-        <v>4.1138316127408778</v>
+        <v>4.1138316204398588</v>
       </c>
       <c r="M3">
-        <v>6.4884347268738427</v>
+        <v>6.4884615253225117</v>
       </c>
       <c r="N3">
-        <v>4.5864924751149969</v>
+        <v>4.5864924805328933</v>
       </c>
       <c r="P3">
-        <v>3.7878577010812937</v>
+        <v>3.7878577137730045</v>
       </c>
       <c r="Q3">
-        <v>4.1269942617228983</v>
+        <v>4.1269942666490742</v>
       </c>
       <c r="R3">
-        <v>6.2788222838322829</v>
+        <v>6.2788222958527022</v>
       </c>
       <c r="W3">
-        <v>4.7441250474998373</v>
+        <v>4.7441250575465732</v>
       </c>
       <c r="AA3">
-        <v>2.8662643633634346</v>
+        <v>2.8662643725539514</v>
       </c>
       <c r="AB3">
-        <v>3.0225162921268987</v>
+        <v>3.0225163002376645</v>
       </c>
       <c r="AC3">
-        <v>4.4042929835144502</v>
+        <v>4.404292985887583</v>
       </c>
       <c r="AD3">
-        <v>2.854865189571512</v>
+        <v>2.8548651956874713</v>
       </c>
       <c r="AE3">
-        <v>2.8239090693721618</v>
+        <v>2.8239090716314861</v>
       </c>
       <c r="AF3">
-        <v>4.8891890977049171</v>
+        <v>4.8891891039215558</v>
       </c>
       <c r="AG3">
-        <v>4.0952720682947428</v>
+        <v>4.0952720766432886</v>
       </c>
       <c r="AH3">
-        <v>4.7609966969921329</v>
+        <v>4.7609967059558356</v>
       </c>
       <c r="AI3">
-        <v>-0.7170260142220638</v>
+        <v>-0.71702601311699188</v>
       </c>
       <c r="AJ3">
-        <v>3.2274686691187631</v>
+        <v>3.2274686775526065</v>
       </c>
       <c r="AK3">
-        <v>4.4247769506828645</v>
+        <v>4.4247769567932353</v>
       </c>
       <c r="AL3">
-        <v>4.2405969899455904</v>
+        <v>4.2405970010899816</v>
       </c>
       <c r="AM3">
-        <v>3.0496481428263671</v>
+        <v>3.0496481571372636</v>
       </c>
       <c r="AN3">
-        <v>7.6356622467662296</v>
+        <v>7.6356622536116099</v>
       </c>
       <c r="AO3">
-        <v>3.2892586390737679</v>
+        <v>3.2892586442052054</v>
       </c>
       <c r="AP3">
-        <v>4.5540125093289294</v>
+        <v>4.5540125160712766</v>
       </c>
       <c r="AQ3">
-        <v>3.6353524087288989</v>
+        <v>3.6353524155208996</v>
       </c>
       <c r="AS3">
-        <v>4.3256768270688459</v>
+        <v>4.3256768289987564</v>
       </c>
       <c r="AT3">
-        <v>2.5648063454356747</v>
+        <v>2.5648063548016307</v>
       </c>
       <c r="AU3">
-        <v>4.0682454422994105</v>
+        <v>4.0682454443103326</v>
       </c>
       <c r="AV3">
-        <v>3.8704780972532769</v>
+        <v>3.8704781037113971</v>
       </c>
       <c r="AW3">
-        <v>5.5127369800928827</v>
+        <v>5.5127369878649697</v>
       </c>
       <c r="AX3">
-        <v>5.5728278318115043</v>
+        <v>5.5728278404261467</v>
       </c>
       <c r="AY3">
-        <v>1.2337633576672014</v>
+        <v>1.2337633680108662</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>4.9540112090094981</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.0070171722760257</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.4856392671919458</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.4136738087541318</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.6412475121018746</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.285210957243299</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.0444069650931702</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.6154849678511534</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.1245118905740439</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.7700452715864232</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.4093170197702669</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.7998241891397866</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.0516459348053151</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.4267295588156941</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>8.2958992702885919</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.5208629512754377</v>
+        <v>5.189404872274813</v>
       </c>
       <c r="V2">
         <v>4.5099853529057388</v>
@@ -570,52 +465,55 @@
         <v>6.4371624985703697</v>
       </c>
       <c r="AA2">
-        <v>3.2421450718739129</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.1222424440926577</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.478352797582529</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.5606999388224403</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>4.946518695920834</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.398273239327307</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.8932485364389944</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.1285464940762875</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.8478768116190603</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.8035480036449658</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>4.5411162970026693</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.2483995007758404</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.0794776331894016</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>4.1642446736945837</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.545029123706041</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>5.5305870879912389</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.1889417115946852</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>5.0853495527150638</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.817390879437502</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.3118636741325238</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.3907104962170287</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3.9082655332827976</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.5836250264535545</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.9651061212269032</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-0.60985382627235896</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4.1138316204398588</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.4884615253225117</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.5864924805328933</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.7878577137730045</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.1269942666490742</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.2788222958527022</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>4.7441250575465732</v>
       </c>
       <c r="AA3">
-        <v>2.8662643725539514</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.0225163002376645</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.404292985887583</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.8548651956874713</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.8239090716314861</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.8891891039215558</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>4.0952720766432886</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.7609967059558356</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-0.71702601311699188</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.2274686775526065</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.4247769567932353</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.2405970010899816</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.0496481571372636</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>7.6356622536116099</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.2892586442052054</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.5540125160712766</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.6353524155208996</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>4.3256768289987564</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,18 +512,6 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4.9540112066796906</v>
-      </c>
-      <c r="C2">
-        <v>5.5513897877883158</v>
-      </c>
-      <c r="D2">
-        <v>4.4856392602410402</v>
-      </c>
-      <c r="E2">
-        <v>2.4136738066904648</v>
-      </c>
       <c r="F2">
         <v>4.64124751033882</v>
       </c>
@@ -648,14 +631,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5.0853495465808569</v>
-      </c>
       <c r="C3">
-        <v>4.8173908722598338</v>
+        <v>6.2788222958527022</v>
+      </c>
+      <c r="D3">
+        <v>7.4335369818962906</v>
       </c>
       <c r="E3">
-        <v>3.311863670523798</v>
+        <v>3.4519182261754424</v>
       </c>
       <c r="F3">
         <v>4.3907104912761978</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.9540112066796906</v>
-      </c>
-      <c r="C2">
-        <v>5.5513897877883158</v>
+        <v>4.9959237662957703</v>
       </c>
       <c r="D2">
-        <v>4.4856392602410402</v>
-      </c>
-      <c r="E2">
-        <v>2.4136738066904648</v>
+        <v>3.0794776331894016</v>
       </c>
       <c r="F2">
         <v>4.64124751033882</v>
@@ -637,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.0853495465808569</v>
-      </c>
-      <c r="C3">
-        <v>4.8173908722598338</v>
+        <v>4.5864924805328933</v>
+      </c>
+      <c r="D3">
+        <v>3.0496481571372636</v>
       </c>
       <c r="E3">
-        <v>2.0073563472325575</v>
+        <v>7.4335369818962906</v>
       </c>
       <c r="F3">
         <v>4.3907104912761978</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,112 +513,118 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>4.9540112090094981</v>
+      </c>
+      <c r="C2">
+        <v>5.5513897897637872</v>
+      </c>
+      <c r="D2">
+        <v>4.4856392671919458</v>
+      </c>
+      <c r="E2">
+        <v>2.4136738087541318</v>
+      </c>
+      <c r="F2">
+        <v>4.6412475121018746</v>
+      </c>
+      <c r="G2">
+        <v>6.4246677390586076</v>
+      </c>
+      <c r="H2">
+        <v>3.0444069650931702</v>
+      </c>
+      <c r="I2">
+        <v>3.8187003400144839</v>
+      </c>
+      <c r="J2">
+        <v>5.1245118905740439</v>
+      </c>
+      <c r="K2">
+        <v>5.7700452715864232</v>
+      </c>
+      <c r="L2">
+        <v>7.3649003375879669</v>
+      </c>
+      <c r="N2">
         <v>4.9959237662957703</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>4.1141706118265535</v>
+      </c>
+      <c r="Q2">
+        <v>8.2958992702885919</v>
+      </c>
+      <c r="V2">
+        <v>3.9266445428862533</v>
+      </c>
+      <c r="W2">
+        <v>5.7348500576192505</v>
+      </c>
+      <c r="X2">
+        <v>6.4371624985703697</v>
+      </c>
+      <c r="AA2">
+        <v>3.2421450718739129</v>
+      </c>
+      <c r="AB2">
+        <v>4.1222424440926577</v>
+      </c>
+      <c r="AC2">
+        <v>6.478352797582529</v>
+      </c>
+      <c r="AD2">
+        <v>1.5606999388224403</v>
+      </c>
+      <c r="AE2">
+        <v>4.946518695920834</v>
+      </c>
+      <c r="AF2">
+        <v>4.398273239327307</v>
+      </c>
+      <c r="AG2">
+        <v>2.8932485364389944</v>
+      </c>
+      <c r="AH2">
+        <v>3.1285464940762875</v>
+      </c>
+      <c r="AI2">
+        <v>4.8478768116190603</v>
+      </c>
+      <c r="AJ2">
+        <v>3.8035480036449658</v>
+      </c>
+      <c r="AK2">
+        <v>4.5411162970026693</v>
+      </c>
+      <c r="AL2">
+        <v>7.2483995007758404</v>
+      </c>
+      <c r="AM2">
         <v>3.0794776331894016</v>
       </c>
-      <c r="F2">
-        <v>4.64124751033882</v>
-      </c>
-      <c r="G2">
-        <v>6.4246677395417162</v>
-      </c>
-      <c r="H2">
-        <v>3.0444069617667378</v>
-      </c>
-      <c r="I2">
-        <v>3.8187003431682549</v>
-      </c>
-      <c r="J2">
-        <v>5.1245118856003806</v>
-      </c>
-      <c r="K2">
-        <v>5.770045273775759</v>
-      </c>
-      <c r="L2">
-        <v>7.3649003340157115</v>
-      </c>
-      <c r="N2">
-        <v>4.9959237651942541</v>
-      </c>
-      <c r="P2">
-        <v>4.1141706113176832</v>
-      </c>
-      <c r="Q2">
-        <v>8.2958992633663886</v>
-      </c>
-      <c r="V2">
-        <v>3.9266445331646582</v>
-      </c>
-      <c r="W2">
-        <v>5.7348500536528872</v>
-      </c>
-      <c r="X2">
-        <v>6.437162493654192</v>
-      </c>
-      <c r="AA2">
-        <v>3.2421450648843617</v>
-      </c>
-      <c r="AB2">
-        <v>4.1222424304331948</v>
-      </c>
-      <c r="AC2">
-        <v>6.4783527979165294</v>
-      </c>
-      <c r="AD2">
-        <v>1.5606999234657282</v>
-      </c>
-      <c r="AE2">
-        <v>4.946518695377395</v>
-      </c>
-      <c r="AF2">
-        <v>4.3982732380551086</v>
-      </c>
-      <c r="AG2">
-        <v>2.8932485296486599</v>
-      </c>
-      <c r="AH2">
-        <v>3.1285464848679467</v>
-      </c>
-      <c r="AI2">
-        <v>4.8478767963871539</v>
-      </c>
-      <c r="AJ2">
-        <v>3.8035480009735161</v>
-      </c>
-      <c r="AK2">
-        <v>4.541116290753636</v>
-      </c>
-      <c r="AL2">
-        <v>7.2483994943644614</v>
-      </c>
-      <c r="AM2">
-        <v>3.0794776215143171</v>
-      </c>
       <c r="AO2">
-        <v>2.5450291117537795</v>
+        <v>2.545029123706041</v>
       </c>
       <c r="AR2">
-        <v>3.1889417152836415</v>
+        <v>3.1889417115946852</v>
       </c>
       <c r="AS2">
-        <v>2.5682932409788322</v>
+        <v>2.5682932523539184</v>
       </c>
       <c r="AU2">
-        <v>3.971595262351344</v>
+        <v>3.9715952702127013</v>
       </c>
       <c r="AV2">
-        <v>3.1990513909444322</v>
+        <v>3.1990514048113594</v>
       </c>
       <c r="AW2">
-        <v>5.0522654134167118</v>
+        <v>5.0522654232405095</v>
       </c>
       <c r="AX2">
-        <v>3.1720329788931281</v>
+        <v>3.1720329852798899</v>
       </c>
       <c r="AY2">
-        <v>1.8700103749232315</v>
+        <v>1.8700103864548869</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -626,121 +632,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5.0853495527150638</v>
+      </c>
+      <c r="C3">
+        <v>4.817390879437502</v>
+      </c>
+      <c r="E3">
+        <v>2.0073563462178172</v>
+      </c>
+      <c r="F3">
+        <v>4.3907104962170287</v>
+      </c>
+      <c r="G3">
+        <v>3.9082655332827976</v>
+      </c>
+      <c r="H3">
+        <v>6.5836250264535545</v>
+      </c>
+      <c r="J3">
+        <v>3.9651061212269032</v>
+      </c>
+      <c r="K3">
+        <v>0.11230172230927574</v>
+      </c>
+      <c r="L3">
+        <v>4.1138316204398588</v>
+      </c>
+      <c r="M3">
+        <v>7.2861169520043871</v>
+      </c>
+      <c r="N3">
         <v>4.5864924805328933</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>3.7878577137730045</v>
+      </c>
+      <c r="Q3">
+        <v>4.1269942666490742</v>
+      </c>
+      <c r="R3">
+        <v>6.2788222958527022</v>
+      </c>
+      <c r="W3">
+        <v>4.7441250575465732</v>
+      </c>
+      <c r="AA3">
+        <v>2.8662643725539514</v>
+      </c>
+      <c r="AB3">
+        <v>3.0225163002376645</v>
+      </c>
+      <c r="AC3">
+        <v>4.404292985887583</v>
+      </c>
+      <c r="AD3">
+        <v>2.8548651956874713</v>
+      </c>
+      <c r="AE3">
+        <v>2.8239090716314861</v>
+      </c>
+      <c r="AF3">
+        <v>4.8891891039215558</v>
+      </c>
+      <c r="AG3">
+        <v>4.0952720766432886</v>
+      </c>
+      <c r="AH3">
+        <v>4.7609967059558356</v>
+      </c>
+      <c r="AI3">
+        <v>4.5681970289744518</v>
+      </c>
+      <c r="AJ3">
+        <v>3.2274686775526065</v>
+      </c>
+      <c r="AK3">
+        <v>4.4247769567932353</v>
+      </c>
+      <c r="AL3">
+        <v>4.2405970010899816</v>
+      </c>
+      <c r="AM3">
         <v>3.0496481571372636</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>7.4335369818962906</v>
       </c>
-      <c r="F3">
-        <v>4.3907104912761978</v>
-      </c>
-      <c r="G3">
-        <v>3.9082655288655448</v>
-      </c>
-      <c r="H3">
-        <v>6.5836250244714165</v>
-      </c>
-      <c r="J3">
-        <v>3.9651061089215358</v>
-      </c>
-      <c r="K3">
-        <v>0.11230171773218886</v>
-      </c>
-      <c r="L3">
-        <v>4.1138316127408778</v>
-      </c>
-      <c r="M3">
-        <v>7.2861421692019217</v>
-      </c>
-      <c r="N3">
-        <v>4.5864924751149969</v>
-      </c>
-      <c r="P3">
-        <v>3.7878577010812937</v>
-      </c>
-      <c r="Q3">
-        <v>4.1269942617228983</v>
-      </c>
-      <c r="R3">
-        <v>6.2788222838322829</v>
-      </c>
-      <c r="W3">
-        <v>4.7441250474998373</v>
-      </c>
-      <c r="AA3">
-        <v>2.8662643633634346</v>
-      </c>
-      <c r="AB3">
-        <v>3.0225162921268987</v>
-      </c>
-      <c r="AC3">
-        <v>4.4042929835144502</v>
-      </c>
-      <c r="AD3">
-        <v>2.854865189571512</v>
-      </c>
-      <c r="AE3">
-        <v>2.8239090693721618</v>
-      </c>
-      <c r="AF3">
-        <v>4.8891890977049171</v>
-      </c>
-      <c r="AG3">
-        <v>4.0952720682947428</v>
-      </c>
-      <c r="AH3">
-        <v>4.7609966969921329</v>
-      </c>
-      <c r="AI3">
-        <v>4.5681970156532969</v>
-      </c>
-      <c r="AJ3">
-        <v>3.2274686691187631</v>
-      </c>
-      <c r="AK3">
-        <v>4.4247769506828645</v>
-      </c>
-      <c r="AL3">
-        <v>4.2405969899455904</v>
-      </c>
-      <c r="AM3">
-        <v>3.0496481428263671</v>
-      </c>
-      <c r="AN3">
-        <v>7.4335369745316848</v>
-      </c>
       <c r="AO3">
-        <v>3.2892586390737679</v>
+        <v>3.2892586442052054</v>
       </c>
       <c r="AP3">
-        <v>4.5540125093289294</v>
+        <v>4.5540125160712766</v>
       </c>
       <c r="AQ3">
-        <v>3.4519182232997521</v>
+        <v>3.4519182261754424</v>
       </c>
       <c r="AS3">
-        <v>4.3256768270688459</v>
+        <v>4.3256768289987564</v>
       </c>
       <c r="AT3">
-        <v>2.5648063454356747</v>
+        <v>2.5648063548016307</v>
       </c>
       <c r="AU3">
-        <v>3.8689427917063672</v>
+        <v>3.8689427941040444</v>
       </c>
       <c r="AV3">
-        <v>3.8704780972532769</v>
+        <v>3.8704781037113971</v>
       </c>
       <c r="AW3">
-        <v>5.5127369800928827</v>
+        <v>5.5127369878649697</v>
       </c>
       <c r="AX3">
-        <v>5.5728278318115043</v>
+        <v>5.5728278404261467</v>
       </c>
       <c r="AY3">
-        <v>1.2337633576672014</v>
+        <v>1.2337633680108662</v>
       </c>
     </row>
   </sheetData>
